--- a/data/trans_dic/P78C_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P78C_R-Estudios-trans_dic.xlsx
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,13; 6,94</t>
+          <t>3,23; 6,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,22</t>
+          <t>2,06; 4,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,81; 4,71</t>
+          <t>2,77; 4,73</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,47; 3,07</t>
+          <t>1,45; 3,09</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,52; 3,05</t>
+          <t>1,51; 3,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,68; 2,82</t>
+          <t>1,66; 2,74</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,97</t>
+          <t>0,0; 0,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 1,97</t>
+          <t>0,27; 1,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,08</t>
+          <t>0,2; 1,03</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,68; 2,88</t>
+          <t>1,68; 2,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,66; 2,71</t>
+          <t>1,63; 2,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,78; 2,59</t>
+          <t>1,79; 2,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P78C_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P78C_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P78C_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P78C_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,66%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,23; 6,96</t>
+          <t>3,11; 7,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,06; 4,19</t>
+          <t>2,06; 4,35</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>2,14%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>2,14%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 3,09</t>
+          <t>1,52; 3,24</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,51; 3,14</t>
+          <t>1,5; 3,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,66; 2,74</t>
+          <t>1,64; 2,72</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,51%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,93</t>
+          <t>0,0; 0,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,88</t>
+          <t>0,28; 1,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,2; 1,03</t>
+          <t>0,22; 1,08</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>2,12%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,68; 2,91</t>
+          <t>1,63; 2,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,63; 2,69</t>
+          <t>1,61; 2,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,79; 2,57</t>
+          <t>1,77; 2,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P78C_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P78C_R-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,65%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,11; 7,01</t>
+          <t>3,02; 6,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,06; 4,35</t>
+          <t>2,07; 4,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,77; 4,73</t>
+          <t>2,75; 4,69</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,14%</t>
+          <t>2,04%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,52; 3,24</t>
+          <t>1,28; 3,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,5; 3,02</t>
+          <t>1,37; 3,03</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,64; 2,72</t>
+          <t>1,51; 2,68</t>
         </is>
       </c>
     </row>
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>0,52%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,96</t>
+          <t>0,0; 0,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,88</t>
+          <t>0,28; 1,87</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>2,05%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,63; 2,88</t>
+          <t>1,47; 2,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,61; 2,62</t>
+          <t>1,51; 2,68</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,77; 2,57</t>
+          <t>1,67; 2,54</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P78C_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P78C_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -50,34 +51,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -504,7 +477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -520,15 +493,6 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
-    <col width="14" customWidth="1" min="6" max="6"/>
-    <col width="14" customWidth="1" min="7" max="7"/>
-    <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -543,85 +507,31 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2012</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
@@ -633,15 +543,6 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
-      <c r="F3" s="2" t="n"/>
-      <c r="G3" s="2" t="n"/>
-      <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,60 +557,15 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4,62%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>2,99%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>3,65%</t>
         </is>
@@ -724,62 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>3,07; 6,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>2,04; 4,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>3,02; 6,87</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,15</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,15</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,22</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>2,07; 4,37</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,08</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,09</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,12</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>2,75; 4,69</t>
+          <t>2,74; 4,72</t>
         </is>
       </c>
     </row>
@@ -796,60 +607,15 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,01%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>2,07%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>2,04%</t>
         </is>
@@ -864,60 +630,15 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>1,28; 3,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>1,34; 3,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,1</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>1,28; 3,05</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,12</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,12</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,1</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>1,37; 3,03</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,05</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
         <is>
           <t>1,51; 2,68</t>
         </is>
@@ -936,60 +657,15 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,21%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,81%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>0,52%</t>
         </is>
@@ -1004,62 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>0,02; 1,15</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>0,31; 1,93</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,95</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,42</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,46</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,36</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>0,28; 1,87</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,2</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,23</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,19</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>0,22; 1,08</t>
+          <t>0,22; 1,12</t>
         </is>
       </c>
     </row>
@@ -1076,60 +707,15 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,06%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>2,03%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>2,05%</t>
         </is>
@@ -1144,62 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,52; 2,83</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,51; 2,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>1,47; 2,8</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,06</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>1,51; 2,68</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,03</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>1,67; 2,54</t>
+          <t>1,64; 2,48</t>
         </is>
       </c>
     </row>
@@ -1211,15 +752,396 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="5">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con retrasos en pagos no resueltos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>23765</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>22591</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>46355</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>15784; 35102</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>15376; 32362</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>34800; 59902</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>46018</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>46236</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>92254</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>29306; 69277</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>30001; 69265</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>68406; 121553</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>1370</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>5372</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6743</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>159; 7421</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2041; 12760</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2826; 14650</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>71153</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>74199</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>145352</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>52298; 97816</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>55242; 95618</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>116349; 176458</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
